--- a/data/trans_orig/P45C_R1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R1-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B5ACA63-DB96-459A-A6D9-1218E8FDDE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4470E252-54CC-42D1-A964-AD84C5AE89CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CCA9350-BFBC-47DA-AAC3-0D462B098C1E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7C2A6AF-AC44-4BDF-9ABE-57D5621B8346}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="324">
   <si>
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,5%</t>
+    <t>7,81%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>4,09%</t>
+    <t>4,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,37%</t>
   </si>
   <si>
-    <t>91,5%</t>
+    <t>92,19%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,925 +116,889 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2015 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
   </si>
   <si>
     <t>97,67%</t>
@@ -1458,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74CE053-E782-4B32-BAF0-E4D984224538}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0978B5A3-E720-4F5E-B785-A1BF7443DADF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1743,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1752,13 +1716,13 @@
         <v>965</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -1767,13 +1731,13 @@
         <v>1913</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,10 +1752,10 @@
         <v>576688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -1803,10 +1767,10 @@
         <v>574631</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -1818,10 +1782,10 @@
         <v>1151319</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -1880,7 +1844,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1892,13 +1856,13 @@
         <v>13915</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -1907,13 +1871,13 @@
         <v>14915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -1922,13 +1886,13 @@
         <v>28830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,13 +1907,13 @@
         <v>944613</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>891</v>
@@ -1958,13 +1922,13 @@
         <v>949947</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>1771</v>
@@ -1973,13 +1937,13 @@
         <v>1894561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,7 +1999,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2047,13 +2011,13 @@
         <v>18918</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2062,13 +2026,13 @@
         <v>17496</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -2077,13 +2041,13 @@
         <v>36414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,13 +2062,13 @@
         <v>658779</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>676</v>
@@ -2113,13 +2077,13 @@
         <v>664684</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>1299</v>
@@ -2128,13 +2092,13 @@
         <v>1323463</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,7 +2154,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2202,13 +2166,13 @@
         <v>19482</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -2217,13 +2181,13 @@
         <v>22976</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2232,13 +2196,13 @@
         <v>42458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2217,13 @@
         <v>920163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>972</v>
@@ -2268,13 +2232,13 @@
         <v>1012630</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>1944</v>
@@ -2283,13 +2247,13 @@
         <v>1932793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2321,13 @@
         <v>55141</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -2372,13 +2336,13 @@
         <v>56351</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -2387,13 +2351,13 @@
         <v>111492</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,13 +2372,13 @@
         <v>3213723</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>3234</v>
@@ -2423,13 +2387,13 @@
         <v>3314648</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>6388</v>
@@ -2438,13 +2402,13 @@
         <v>6528372</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,7 +2464,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +2485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA2FF60-1A74-47DF-9AB8-5FDAEFB93CBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6A51E7-A440-448A-B668-A20DEDE3F1E0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2538,7 +2502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2645,13 +2609,13 @@
         <v>3281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2660,13 +2624,13 @@
         <v>2028</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2675,13 +2639,13 @@
         <v>5309</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2660,13 @@
         <v>109679</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -2711,10 +2675,10 @@
         <v>108828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2726,13 +2690,13 @@
         <v>218507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2764,13 @@
         <v>9894</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2815,13 +2779,13 @@
         <v>12339</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -2830,13 +2794,13 @@
         <v>22234</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2815,13 @@
         <v>574961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
         <v>539</v>
@@ -2866,13 +2830,13 @@
         <v>571767</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>1078</v>
@@ -2881,13 +2845,13 @@
         <v>1146727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,7 +2907,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2955,13 +2919,13 @@
         <v>13800</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2970,13 +2934,13 @@
         <v>14878</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -2985,13 +2949,13 @@
         <v>28678</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,28 +2970,28 @@
         <v>994265</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>916</v>
       </c>
       <c r="I11" s="7">
-        <v>1006271</v>
+        <v>1006270</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>1831</v>
@@ -3036,13 +3000,13 @@
         <v>2000536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,7 +3033,7 @@
         <v>930</v>
       </c>
       <c r="I12" s="7">
-        <v>1021149</v>
+        <v>1021148</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -3098,7 +3062,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3110,13 +3074,13 @@
         <v>10330</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3125,13 +3089,13 @@
         <v>6014</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3140,13 +3104,13 @@
         <v>16344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3125,13 @@
         <v>738991</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>690</v>
@@ -3176,28 +3140,28 @@
         <v>761613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
         <v>1361</v>
       </c>
       <c r="N14" s="7">
-        <v>1500605</v>
+        <v>1500604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,7 +3203,7 @@
         <v>1377</v>
       </c>
       <c r="N15" s="7">
-        <v>1516949</v>
+        <v>1516948</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -3253,7 +3217,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3265,13 +3229,13 @@
         <v>6707</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -3280,13 +3244,13 @@
         <v>21001</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3295,13 +3259,13 @@
         <v>27708</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3280,13 @@
         <v>937138</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>971</v>
@@ -3331,13 +3295,13 @@
         <v>1018689</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>1870</v>
@@ -3346,13 +3310,13 @@
         <v>1955827</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3384,13 @@
         <v>44012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -3435,13 +3399,13 @@
         <v>56260</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M19" s="7">
         <v>95</v>
@@ -3450,13 +3414,13 @@
         <v>100272</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3435,13 @@
         <v>3355036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>3212</v>
@@ -3486,28 +3450,28 @@
         <v>3467167</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>6352</v>
       </c>
       <c r="N20" s="7">
-        <v>6822203</v>
+        <v>6822202</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,7 +3513,7 @@
         <v>6447</v>
       </c>
       <c r="N21" s="7">
-        <v>6922475</v>
+        <v>6922474</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -3563,7 +3527,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3584,7 +3548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A4F0BE-D884-4B95-BF5E-4AF0076850C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAD106D-76BA-4C7E-A8CE-F25A7B5C3DC7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3601,7 +3565,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3708,13 +3672,13 @@
         <v>993</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3723,13 +3687,13 @@
         <v>1792</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3738,13 +3702,13 @@
         <v>2785</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,10 +3723,10 @@
         <v>115553</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3774,10 +3738,10 @@
         <v>111568</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3789,13 +3753,13 @@
         <v>227121</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3827,13 @@
         <v>5198</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3878,13 +3842,13 @@
         <v>5502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3893,13 +3857,13 @@
         <v>10700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,7 +3878,7 @@
         <v>551076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>211</v>
@@ -3929,13 +3893,13 @@
         <v>551169</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>1074</v>
@@ -3944,13 +3908,13 @@
         <v>1102245</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,7 +3970,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4018,13 +3982,13 @@
         <v>7278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4033,13 +3997,13 @@
         <v>12911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4048,13 +4012,13 @@
         <v>20188</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4033,13 @@
         <v>1005365</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H11" s="7">
         <v>961</v>
@@ -4084,10 +4048,10 @@
         <v>1023465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>227</v>
@@ -4099,10 +4063,10 @@
         <v>2028831</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>228</v>
@@ -4161,7 +4125,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4191,10 +4155,10 @@
         <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4203,13 +4167,13 @@
         <v>22249</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4188,13 @@
         <v>737056</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H14" s="7">
         <v>718</v>
@@ -4239,28 +4203,28 @@
         <v>765370</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>1395</v>
       </c>
       <c r="N14" s="7">
-        <v>1502427</v>
+        <v>1502426</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,7 +4266,7 @@
         <v>1415</v>
       </c>
       <c r="N15" s="7">
-        <v>1524676</v>
+        <v>1524675</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -4316,7 +4280,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4328,13 +4292,13 @@
         <v>5252</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4343,13 +4307,13 @@
         <v>9153</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4358,13 +4322,13 @@
         <v>14405</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4343,13 @@
         <v>925418</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>943</v>
@@ -4394,13 +4358,13 @@
         <v>1027112</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>1862</v>
@@ -4409,13 +4373,13 @@
         <v>1952530</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4447,13 @@
         <v>30803</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -4498,13 +4462,13 @@
         <v>39523</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -4513,13 +4477,13 @@
         <v>70326</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4498,13 @@
         <v>3334469</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>271</v>
+        <v>165</v>
       </c>
       <c r="H20" s="7">
         <v>3277</v>
@@ -4549,13 +4513,13 @@
         <v>3478685</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>6453</v>
@@ -4564,13 +4528,13 @@
         <v>6813154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,7 +4590,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4647,7 +4611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA790D4D-3A9D-450E-B4BE-9F8FC1593F48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8EFBA7-8297-4F9F-8726-C84358F61A80}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4664,7 +4628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4777,7 +4741,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4792,7 +4756,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4807,7 +4771,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,7 +4789,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4840,7 +4804,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4855,7 +4819,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -4926,13 +4890,13 @@
         <v>6681</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4941,13 +4905,13 @@
         <v>13162</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4956,13 +4920,13 @@
         <v>19842</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4941,13 @@
         <v>539991</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>978</v>
@@ -4992,13 +4956,13 @@
         <v>578746</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
         <v>1580</v>
@@ -5007,13 +4971,13 @@
         <v>1118738</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>291</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,7 +5033,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5081,13 +5045,13 @@
         <v>18267</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -5096,13 +5060,13 @@
         <v>17378</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -5111,13 +5075,13 @@
         <v>35645</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5096,13 @@
         <v>1019835</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H11" s="7">
         <v>1493</v>
@@ -5147,13 +5111,13 @@
         <v>1041270</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M11" s="7">
         <v>2441</v>
@@ -5162,13 +5126,13 @@
         <v>2061105</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>307</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,7 +5188,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5236,13 +5200,13 @@
         <v>15967</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5251,13 +5215,13 @@
         <v>18126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -5266,13 +5230,13 @@
         <v>34093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5251,13 @@
         <v>710332</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="H14" s="7">
         <v>1023</v>
@@ -5302,13 +5266,13 @@
         <v>855435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>1684</v>
@@ -5317,13 +5281,13 @@
         <v>1565767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>54</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,7 +5343,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5391,13 +5355,13 @@
         <v>16717</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -5406,13 +5370,13 @@
         <v>7144</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -5421,13 +5385,13 @@
         <v>23861</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5406,13 @@
         <v>948686</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
         <v>1551</v>
@@ -5457,13 +5421,13 @@
         <v>1142476</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>2542</v>
@@ -5472,13 +5436,13 @@
         <v>2091162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5510,13 @@
         <v>57631</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -5561,13 +5525,13 @@
         <v>55810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>120</v>
@@ -5576,13 +5540,13 @@
         <v>113441</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5561,13 @@
         <v>3320336</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>5288</v>
@@ -5612,13 +5576,13 @@
         <v>3748660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>8607</v>
@@ -5627,13 +5591,13 @@
         <v>7068997</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,7 +5653,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C_R1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4470E252-54CC-42D1-A964-AD84C5AE89CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E79CC7-E694-447B-A873-9F2E6028D559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7C2A6AF-AC44-4BDF-9ABE-57D5621B8346}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{968D9898-7990-4089-AF50-C586C9E8E140}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="320">
   <si>
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,81%</t>
+    <t>9,0%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>4,12%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,37%</t>
   </si>
   <si>
-    <t>92,19%</t>
+    <t>91,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>95,88%</t>
+    <t>95,89%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -131,10 +131,10 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>99,84%</t>
@@ -146,10 +146,10 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -158,859 +158,847 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>2,33%</t>
+    <t>2,26%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>1,92%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>97,67%</t>
+    <t>97,74%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>98,08%</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0978B5A3-E720-4F5E-B785-A1BF7443DADF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC4B97D-AAB4-40B3-B032-3DE58F5C0AE9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2327,7 +2315,7 @@
         <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -2336,13 +2324,13 @@
         <v>56351</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -2351,13 +2339,13 @@
         <v>111492</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,13 +2360,13 @@
         <v>3213723</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>3234</v>
@@ -2387,13 +2375,13 @@
         <v>3314648</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="M20" s="7">
         <v>6388</v>
@@ -2402,13 +2390,13 @@
         <v>6528372</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,7 +2452,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2485,7 +2473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6A51E7-A440-448A-B668-A20DEDE3F1E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1E6646-60B7-43AE-A853-2A28371ED7CD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2502,7 +2490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2609,13 +2597,13 @@
         <v>3281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2624,13 +2612,13 @@
         <v>2028</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2639,13 +2627,13 @@
         <v>5309</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2648,13 @@
         <v>109679</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -2675,10 +2663,10 @@
         <v>108828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2690,13 +2678,13 @@
         <v>218507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,10 +2755,10 @@
         <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2779,13 +2767,13 @@
         <v>12339</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -2794,13 +2782,13 @@
         <v>22234</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2803,13 @@
         <v>574961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>539</v>
@@ -2830,13 +2818,13 @@
         <v>571767</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>1078</v>
@@ -2845,13 +2833,13 @@
         <v>1146727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,13 +2907,13 @@
         <v>13800</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2934,13 +2922,13 @@
         <v>14878</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -2949,13 +2937,13 @@
         <v>28678</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,28 +2958,28 @@
         <v>994265</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>916</v>
       </c>
       <c r="I11" s="7">
-        <v>1006270</v>
+        <v>1006271</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>1831</v>
@@ -3000,10 +2988,10 @@
         <v>2000536</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>155</v>
@@ -3033,7 +3021,7 @@
         <v>930</v>
       </c>
       <c r="I12" s="7">
-        <v>1021148</v>
+        <v>1021149</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -3074,10 +3062,10 @@
         <v>10330</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>157</v>
@@ -3089,13 +3077,13 @@
         <v>6014</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3104,10 +3092,10 @@
         <v>16344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>94</v>
@@ -3125,13 +3113,13 @@
         <v>738991</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <v>690</v>
@@ -3140,13 +3128,13 @@
         <v>761613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>1361</v>
@@ -3155,13 +3143,13 @@
         <v>1500604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3217,13 @@
         <v>6707</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -3244,13 +3232,13 @@
         <v>21001</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3259,13 +3247,13 @@
         <v>27708</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3268,13 @@
         <v>937138</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
         <v>971</v>
@@ -3295,13 +3283,13 @@
         <v>1018689</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="M17" s="7">
         <v>1870</v>
@@ -3310,13 +3298,13 @@
         <v>1955827</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3372,13 @@
         <v>44012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -3399,13 +3387,13 @@
         <v>56260</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="M19" s="7">
         <v>95</v>
@@ -3417,10 +3405,10 @@
         <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3423,13 @@
         <v>3355036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="H20" s="7">
         <v>3212</v>
@@ -3450,28 +3438,28 @@
         <v>3467167</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>6352</v>
       </c>
       <c r="N20" s="7">
-        <v>6822202</v>
+        <v>6822203</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,7 +3501,7 @@
         <v>6447</v>
       </c>
       <c r="N21" s="7">
-        <v>6922474</v>
+        <v>6922475</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -3527,7 +3515,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3548,7 +3536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAD106D-76BA-4C7E-A8CE-F25A7B5C3DC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13D4C45-A320-4DE6-A781-BA7839503A30}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3565,7 +3553,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3672,13 +3660,13 @@
         <v>993</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3687,13 +3675,13 @@
         <v>1792</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3702,13 +3690,13 @@
         <v>2785</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,10 +3711,10 @@
         <v>115553</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3738,10 +3726,10 @@
         <v>111568</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3753,13 +3741,13 @@
         <v>227121</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3815,13 @@
         <v>5198</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3842,13 +3830,13 @@
         <v>5502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3857,13 +3845,13 @@
         <v>10700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3866,13 @@
         <v>551076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
         <v>542</v>
@@ -3893,13 +3881,13 @@
         <v>551169</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
         <v>1074</v>
@@ -3908,13 +3896,13 @@
         <v>1102245</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +3970,13 @@
         <v>7278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3997,13 +3985,13 @@
         <v>12911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4012,13 +4000,13 @@
         <v>20188</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4021,13 @@
         <v>1005365</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>961</v>
@@ -4048,13 +4036,13 @@
         <v>1023465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>1897</v>
@@ -4063,13 +4051,13 @@
         <v>2028831</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4125,13 @@
         <v>12083</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4152,13 +4140,13 @@
         <v>10166</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4167,13 +4155,13 @@
         <v>22249</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,10 +4176,10 @@
         <v>737056</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>238</v>
@@ -4209,16 +4197,16 @@
         <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>1395</v>
       </c>
       <c r="N14" s="7">
-        <v>1502426</v>
+        <v>1502427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>241</v>
@@ -4266,7 +4254,7 @@
         <v>1415</v>
       </c>
       <c r="N15" s="7">
-        <v>1524675</v>
+        <v>1524676</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -4313,7 +4301,7 @@
         <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4322,13 +4310,13 @@
         <v>14405</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4331,13 @@
         <v>925418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>943</v>
@@ -4358,13 +4346,13 @@
         <v>1027112</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>53</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>1862</v>
@@ -4373,13 +4361,13 @@
         <v>1952530</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4435,13 @@
         <v>30803</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -4462,13 +4450,13 @@
         <v>39523</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -4477,13 +4465,13 @@
         <v>70326</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4486,13 @@
         <v>3334469</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="H20" s="7">
         <v>3277</v>
@@ -4513,13 +4501,13 @@
         <v>3478685</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>6453</v>
@@ -4528,13 +4516,13 @@
         <v>6813154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,7 +4578,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4611,7 +4599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8EFBA7-8297-4F9F-8726-C84358F61A80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2ECE8A9-16EE-4979-B863-6D3FD565693D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4628,7 +4616,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4741,7 +4729,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4756,7 +4744,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4771,7 +4759,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,7 +4777,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4804,7 +4792,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>265</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4819,7 +4807,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -4890,13 +4878,13 @@
         <v>6681</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4908,10 +4896,10 @@
         <v>79</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4920,13 +4908,13 @@
         <v>19842</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4929,13 @@
         <v>539991</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>978</v>
@@ -4959,10 +4947,10 @@
         <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>1580</v>
@@ -4971,13 +4959,13 @@
         <v>1118738</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5033,13 @@
         <v>18267</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -5060,13 +5048,13 @@
         <v>17378</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -5075,13 +5063,13 @@
         <v>35645</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5084,13 @@
         <v>1019835</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>136</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>1493</v>
@@ -5111,13 +5099,13 @@
         <v>1041270</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M11" s="7">
         <v>2441</v>
@@ -5126,13 +5114,13 @@
         <v>2061105</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5188,13 @@
         <v>15967</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5218,10 +5206,10 @@
         <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -5230,13 +5218,13 @@
         <v>34093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5239,13 @@
         <v>710332</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>1023</v>
@@ -5269,10 +5257,10 @@
         <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c r="M14" s="7">
         <v>1684</v>
@@ -5281,13 +5269,13 @@
         <v>1565767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5343,13 @@
         <v>16717</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -5370,13 +5358,13 @@
         <v>7144</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -5385,13 +5373,13 @@
         <v>23861</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5394,13 @@
         <v>948686</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>1551</v>
@@ -5421,13 +5409,13 @@
         <v>1142476</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
         <v>2542</v>
@@ -5436,13 +5424,13 @@
         <v>2091162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5498,13 @@
         <v>57631</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -5525,13 +5513,13 @@
         <v>55810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>176</v>
       </c>
       <c r="M19" s="7">
         <v>120</v>
@@ -5540,13 +5528,13 @@
         <v>113441</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5549,13 @@
         <v>3320336</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>5288</v>
@@ -5576,13 +5564,13 @@
         <v>3748660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
         <v>8607</v>
@@ -5591,13 +5579,13 @@
         <v>7068997</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,7 +5641,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C_R1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E79CC7-E694-447B-A873-9F2E6028D559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD4CBB4-5666-4495-9941-C59C65049574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{968D9898-7990-4089-AF50-C586C9E8E140}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0FF15EDC-FF41-4694-9F34-9D5507AC394C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="276">
   <si>
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -68,762 +68,672 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,51%</t>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
     <t>98,98%</t>
   </si>
   <si>
@@ -833,172 +743,130 @@
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
 </sst>
 </file>
@@ -1410,8 +1278,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC4B97D-AAB4-40B3-B032-3DE58F5C0AE9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4A795-B7F9-4522-8A6E-67C3FB919EDF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1528,10 +1396,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1878</v>
+        <v>2826</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1543,85 +1411,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>1878</v>
+        <v>3791</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>679</v>
       </c>
       <c r="D5" s="7">
-        <v>113480</v>
+        <v>690168</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I5" s="7">
-        <v>112755</v>
+        <v>687386</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>232</v>
+        <v>1374</v>
       </c>
       <c r="N5" s="7">
-        <v>226235</v>
+        <v>1377554</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,153 +1498,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>948</v>
+        <v>13915</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7">
+        <v>14915</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="7">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>965</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="7">
-        <v>3</v>
-      </c>
       <c r="N7" s="7">
-        <v>1913</v>
+        <v>28830</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>575</v>
+        <v>880</v>
       </c>
       <c r="D8" s="7">
-        <v>576688</v>
+        <v>944613</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>567</v>
+        <v>891</v>
       </c>
       <c r="I8" s="7">
-        <v>574631</v>
+        <v>949947</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>1142</v>
+        <v>1771</v>
       </c>
       <c r="N8" s="7">
-        <v>1151319</v>
+        <v>1894561</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,153 +1653,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>893</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>958528</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>905</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>964862</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1798</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1923391</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>13915</v>
+        <v>18918</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>14915</v>
+        <v>17496</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>28830</v>
+        <v>36414</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>880</v>
+        <v>623</v>
       </c>
       <c r="D11" s="7">
-        <v>944613</v>
+        <v>658779</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>891</v>
+        <v>676</v>
       </c>
       <c r="I11" s="7">
-        <v>949947</v>
+        <v>664684</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>1771</v>
+        <v>1299</v>
       </c>
       <c r="N11" s="7">
-        <v>1894561</v>
+        <v>1323463</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,153 +1808,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>893</v>
+        <v>640</v>
       </c>
       <c r="D12" s="7">
-        <v>958528</v>
+        <v>677697</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>905</v>
+        <v>694</v>
       </c>
       <c r="I12" s="7">
-        <v>964862</v>
+        <v>682180</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1798</v>
+        <v>1334</v>
       </c>
       <c r="N12" s="7">
-        <v>1923391</v>
+        <v>1359877</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>18918</v>
+        <v>19482</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>17496</v>
+        <v>22976</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>36414</v>
+        <v>42458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>623</v>
+        <v>972</v>
       </c>
       <c r="D14" s="7">
-        <v>658779</v>
+        <v>920163</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>676</v>
+        <v>972</v>
       </c>
       <c r="I14" s="7">
-        <v>664684</v>
+        <v>1012630</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>1299</v>
+        <v>1944</v>
       </c>
       <c r="N14" s="7">
-        <v>1323463</v>
+        <v>1932793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,153 +1963,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>640</v>
+        <v>991</v>
       </c>
       <c r="D15" s="7">
-        <v>677697</v>
+        <v>939645</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>694</v>
+        <v>994</v>
       </c>
       <c r="I15" s="7">
-        <v>682180</v>
+        <v>1035606</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1334</v>
+        <v>1985</v>
       </c>
       <c r="N15" s="7">
-        <v>1359877</v>
+        <v>1975251</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>19482</v>
+        <v>55141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I16" s="7">
-        <v>22976</v>
+        <v>56351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="N16" s="7">
-        <v>42458</v>
+        <v>111492</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>972</v>
+        <v>3154</v>
       </c>
       <c r="D17" s="7">
-        <v>920163</v>
+        <v>3213723</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
-        <v>972</v>
+        <v>3234</v>
       </c>
       <c r="I17" s="7">
-        <v>1012630</v>
+        <v>3314648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
-        <v>1944</v>
+        <v>6388</v>
       </c>
       <c r="N17" s="7">
-        <v>1932793</v>
+        <v>6528372</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,217 +2118,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>991</v>
+        <v>3206</v>
       </c>
       <c r="D18" s="7">
-        <v>939645</v>
+        <v>3268864</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>994</v>
+        <v>3289</v>
       </c>
       <c r="I18" s="7">
-        <v>1035606</v>
+        <v>3370999</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>1985</v>
+        <v>6495</v>
       </c>
       <c r="N18" s="7">
-        <v>1975251</v>
+        <v>6639864</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>52</v>
-      </c>
-      <c r="D19" s="7">
-        <v>55141</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="7">
-        <v>55</v>
-      </c>
-      <c r="I19" s="7">
-        <v>56351</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M19" s="7">
-        <v>107</v>
-      </c>
-      <c r="N19" s="7">
-        <v>111492</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3154</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3213723</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3234</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3314648</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6388</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6528372</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3206</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3268864</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3289</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3370999</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6495</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6639864</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2473,8 +2185,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1E6646-60B7-43AE-A853-2A28371ED7CD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD39FE43-1C1D-451E-A295-E8DDB6EF340B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2490,7 +2202,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2591,100 +2303,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>3281</v>
+        <v>13175</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>2028</v>
+        <v>14367</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>5309</v>
+        <v>27542</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
+        <v>655</v>
+      </c>
+      <c r="D5" s="7">
+        <v>684641</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="7">
+        <v>635</v>
+      </c>
+      <c r="I5" s="7">
+        <v>680595</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1290</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1365235</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="7">
-        <v>109679</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="7">
-        <v>96</v>
-      </c>
-      <c r="I5" s="7">
-        <v>108828</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7">
-        <v>212</v>
-      </c>
-      <c r="N5" s="7">
-        <v>218507</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,153 +2405,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>119</v>
+        <v>668</v>
       </c>
       <c r="D6" s="7">
-        <v>112960</v>
+        <v>697816</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>98</v>
+        <v>648</v>
       </c>
       <c r="I6" s="7">
-        <v>110856</v>
+        <v>694962</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>217</v>
+        <v>1316</v>
       </c>
       <c r="N6" s="7">
-        <v>223816</v>
+        <v>1392777</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>9894</v>
+        <v>13800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>12339</v>
+        <v>14878</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>22234</v>
+        <v>28678</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>539</v>
+        <v>915</v>
       </c>
       <c r="D8" s="7">
-        <v>574961</v>
+        <v>994265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="7">
+        <v>916</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1006271</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1831</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2000536</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="7">
-        <v>539</v>
-      </c>
-      <c r="I8" s="7">
-        <v>571767</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1078</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1146727</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,153 +2560,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>549</v>
+        <v>927</v>
       </c>
       <c r="D9" s="7">
-        <v>584855</v>
+        <v>1008065</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>930</v>
       </c>
       <c r="I9" s="7">
-        <v>584106</v>
+        <v>1021149</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1099</v>
+        <v>1857</v>
       </c>
       <c r="N9" s="7">
-        <v>1168961</v>
+        <v>2029214</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>13800</v>
+        <v>10330</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6014</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>16</v>
+      </c>
+      <c r="N10" s="7">
+        <v>16344</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="7">
-        <v>14</v>
-      </c>
-      <c r="I10" s="7">
-        <v>14878</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M10" s="7">
-        <v>26</v>
-      </c>
-      <c r="N10" s="7">
-        <v>28678</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>915</v>
+        <v>671</v>
       </c>
       <c r="D11" s="7">
-        <v>994265</v>
+        <v>738991</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="7">
+        <v>690</v>
+      </c>
+      <c r="I11" s="7">
+        <v>761613</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1361</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1500605</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H11" s="7">
-        <v>916</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1006271</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1831</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2000536</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,153 +2715,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>927</v>
+        <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>1008065</v>
+        <v>749321</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>930</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>1021149</v>
+        <v>767627</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1857</v>
+        <v>1377</v>
       </c>
       <c r="N12" s="7">
-        <v>2029214</v>
+        <v>1516949</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>10330</v>
+        <v>6707</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="7">
+        <v>20</v>
+      </c>
+      <c r="I13" s="7">
+        <v>21001</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="7">
+        <v>27</v>
+      </c>
+      <c r="N13" s="7">
+        <v>27708</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6014</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M13" s="7">
-        <v>16</v>
-      </c>
-      <c r="N13" s="7">
-        <v>16344</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>671</v>
+        <v>899</v>
       </c>
       <c r="D14" s="7">
-        <v>738991</v>
+        <v>937138</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="7">
+        <v>971</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1018689</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1870</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1955827</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="7">
-        <v>690</v>
-      </c>
-      <c r="I14" s="7">
-        <v>761613</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1361</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1500604</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,153 +2870,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>681</v>
+        <v>906</v>
       </c>
       <c r="D15" s="7">
-        <v>749321</v>
+        <v>943845</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>991</v>
       </c>
       <c r="I15" s="7">
-        <v>767627</v>
+        <v>1039690</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1377</v>
+        <v>1897</v>
       </c>
       <c r="N15" s="7">
-        <v>1516948</v>
+        <v>1983535</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>6707</v>
+        <v>44012</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I16" s="7">
-        <v>21001</v>
+        <v>56260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M16" s="7">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="N16" s="7">
-        <v>27708</v>
+        <v>100272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>899</v>
+        <v>3140</v>
       </c>
       <c r="D17" s="7">
-        <v>937138</v>
+        <v>3355035</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H17" s="7">
-        <v>971</v>
+        <v>3212</v>
       </c>
       <c r="I17" s="7">
-        <v>1018689</v>
+        <v>3467167</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
-        <v>1870</v>
+        <v>6352</v>
       </c>
       <c r="N17" s="7">
-        <v>1955827</v>
+        <v>6822203</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,217 +3025,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>906</v>
+        <v>3182</v>
       </c>
       <c r="D18" s="7">
-        <v>943845</v>
+        <v>3399047</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>991</v>
+        <v>3265</v>
       </c>
       <c r="I18" s="7">
-        <v>1039690</v>
+        <v>3523427</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>1897</v>
+        <v>6447</v>
       </c>
       <c r="N18" s="7">
-        <v>1983535</v>
+        <v>6922475</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>42</v>
-      </c>
-      <c r="D19" s="7">
-        <v>44012</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" s="7">
-        <v>53</v>
-      </c>
-      <c r="I19" s="7">
-        <v>56260</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M19" s="7">
-        <v>95</v>
-      </c>
-      <c r="N19" s="7">
-        <v>100272</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3140</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3355036</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3212</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3467167</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6352</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6822203</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3182</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3399048</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3265</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3523427</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6447</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6922475</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3536,8 +3092,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13D4C45-A320-4DE6-A781-BA7839503A30}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07342685-C007-4158-88DF-F994A90A193A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3553,7 +3109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3654,100 +3210,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>993</v>
+        <v>6191</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>1792</v>
+        <v>7293</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>2785</v>
+        <v>13485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
+        <v>644</v>
+      </c>
+      <c r="D5" s="7">
+        <v>666629</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="7">
+        <v>655</v>
+      </c>
+      <c r="I5" s="7">
+        <v>662738</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="7">
-        <v>115553</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>113</v>
-      </c>
-      <c r="I5" s="7">
-        <v>111568</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
-        <v>225</v>
+        <v>1299</v>
       </c>
       <c r="N5" s="7">
-        <v>227121</v>
+        <v>1329366</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,153 +3312,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>650</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>672820</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>663</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>670031</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1313</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1342851</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>5198</v>
+        <v>7278</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>5502</v>
+        <v>12911</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>10700</v>
+        <v>20188</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>532</v>
+        <v>936</v>
       </c>
       <c r="D8" s="7">
-        <v>551076</v>
+        <v>1005365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
-        <v>542</v>
+        <v>961</v>
       </c>
       <c r="I8" s="7">
-        <v>551169</v>
+        <v>1023465</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
-        <v>1074</v>
+        <v>1897</v>
       </c>
       <c r="N8" s="7">
-        <v>1102245</v>
+        <v>2028831</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,153 +3467,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>537</v>
+        <v>942</v>
       </c>
       <c r="D9" s="7">
-        <v>556274</v>
+        <v>1012643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>972</v>
       </c>
       <c r="I9" s="7">
-        <v>556671</v>
+        <v>1036376</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1085</v>
+        <v>1914</v>
       </c>
       <c r="N9" s="7">
-        <v>1112945</v>
+        <v>2049019</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>7278</v>
+        <v>12083</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>12911</v>
+        <v>10166</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>20188</v>
+        <v>22249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>936</v>
+        <v>677</v>
       </c>
       <c r="D11" s="7">
-        <v>1005365</v>
+        <v>737056</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
-        <v>961</v>
+        <v>718</v>
       </c>
       <c r="I11" s="7">
-        <v>1023465</v>
+        <v>765370</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
-        <v>1897</v>
+        <v>1395</v>
       </c>
       <c r="N11" s="7">
-        <v>2028831</v>
+        <v>1502426</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>232</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,153 +3622,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>942</v>
+        <v>687</v>
       </c>
       <c r="D12" s="7">
-        <v>1012643</v>
+        <v>749139</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>972</v>
+        <v>728</v>
       </c>
       <c r="I12" s="7">
-        <v>1036376</v>
+        <v>775536</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1914</v>
+        <v>1415</v>
       </c>
       <c r="N12" s="7">
-        <v>2049019</v>
+        <v>1524675</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>12083</v>
+        <v>5252</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>10166</v>
+        <v>9153</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>22249</v>
+        <v>14405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>677</v>
+        <v>919</v>
       </c>
       <c r="D14" s="7">
-        <v>737056</v>
+        <v>925418</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
-        <v>718</v>
+        <v>943</v>
       </c>
       <c r="I14" s="7">
-        <v>765370</v>
+        <v>1027112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
-        <v>1395</v>
+        <v>1862</v>
       </c>
       <c r="N14" s="7">
-        <v>1502427</v>
+        <v>1952530</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,153 +3777,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>687</v>
+        <v>925</v>
       </c>
       <c r="D15" s="7">
-        <v>749139</v>
+        <v>930670</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>728</v>
+        <v>952</v>
       </c>
       <c r="I15" s="7">
-        <v>775536</v>
+        <v>1036265</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1415</v>
+        <v>1877</v>
       </c>
       <c r="N15" s="7">
-        <v>1524676</v>
+        <v>1966935</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>5252</v>
+        <v>30803</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>9153</v>
+        <v>39523</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="N16" s="7">
-        <v>14405</v>
+        <v>70326</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>919</v>
+        <v>3176</v>
       </c>
       <c r="D17" s="7">
-        <v>925418</v>
+        <v>3334469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
-        <v>943</v>
+        <v>3277</v>
       </c>
       <c r="I17" s="7">
-        <v>1027112</v>
+        <v>3478685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
-        <v>1862</v>
+        <v>6453</v>
       </c>
       <c r="N17" s="7">
-        <v>1952530</v>
+        <v>6813154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,217 +3932,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>925</v>
+        <v>3204</v>
       </c>
       <c r="D18" s="7">
-        <v>930670</v>
+        <v>3365272</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>952</v>
+        <v>3315</v>
       </c>
       <c r="I18" s="7">
-        <v>1036265</v>
+        <v>3518208</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>1877</v>
+        <v>6519</v>
       </c>
       <c r="N18" s="7">
-        <v>1966935</v>
+        <v>6883480</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>28</v>
-      </c>
-      <c r="D19" s="7">
-        <v>30803</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H19" s="7">
-        <v>38</v>
-      </c>
-      <c r="I19" s="7">
-        <v>39523</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="7">
-        <v>66</v>
-      </c>
-      <c r="N19" s="7">
-        <v>70326</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3176</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3334469</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3277</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3478685</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6453</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6813154</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3204</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3365272</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3315</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3518208</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6519</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6883480</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4599,8 +3999,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2ECE8A9-16EE-4979-B863-6D3FD565693D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F99658-3552-4A88-946D-AC36B30C0335}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4616,7 +4016,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4717,100 +4117,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6567</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>12724</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>19291</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>117</v>
+        <v>719</v>
       </c>
       <c r="D5" s="7">
-        <v>101491</v>
+        <v>625132</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
+        <v>1221</v>
+      </c>
+      <c r="I5" s="7">
+        <v>662097</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I5" s="7">
-        <v>130733</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
-        <v>360</v>
+        <v>1940</v>
       </c>
       <c r="N5" s="7">
-        <v>232224</v>
+        <v>1287230</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,153 +4219,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>726</v>
       </c>
       <c r="D6" s="7">
-        <v>101491</v>
+        <v>631699</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674821</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1963</v>
       </c>
       <c r="N6" s="7">
-        <v>232224</v>
+        <v>1306521</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>6681</v>
+        <v>18065</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>13162</v>
+        <v>15977</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N7" s="7">
-        <v>19842</v>
+        <v>34042</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>602</v>
+        <v>948</v>
       </c>
       <c r="D8" s="7">
-        <v>539991</v>
+        <v>1173672</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="H8" s="7">
-        <v>978</v>
+        <v>1493</v>
       </c>
       <c r="I8" s="7">
-        <v>578746</v>
+        <v>941469</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
-        <v>1580</v>
+        <v>2441</v>
       </c>
       <c r="N8" s="7">
-        <v>1118738</v>
+        <v>2115141</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>281</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,153 +4374,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>609</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>546672</v>
+        <v>1191737</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>591908</v>
+        <v>957446</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1603</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1138580</v>
+        <v>2149183</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>18267</v>
+        <v>15087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>17378</v>
+        <v>16468</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>35645</v>
+        <v>31554</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>948</v>
+        <v>661</v>
       </c>
       <c r="D11" s="7">
-        <v>1019835</v>
+        <v>687175</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
-        <v>1493</v>
+        <v>1023</v>
       </c>
       <c r="I11" s="7">
-        <v>1041270</v>
+        <v>916143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
-        <v>2441</v>
+        <v>1684</v>
       </c>
       <c r="N11" s="7">
-        <v>2061105</v>
+        <v>1603319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,153 +4529,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1038102</v>
+        <v>702262</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="7">
-        <v>1058648</v>
+        <v>932611</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1719</v>
       </c>
       <c r="N12" s="7">
-        <v>2096750</v>
+        <v>1634873</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>15967</v>
+        <v>15570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>18126</v>
+        <v>6527</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>34093</v>
+        <v>22097</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>103</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>661</v>
+        <v>991</v>
       </c>
       <c r="D14" s="7">
-        <v>710332</v>
+        <v>911261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
-        <v>1023</v>
+        <v>1551</v>
       </c>
       <c r="I14" s="7">
-        <v>855435</v>
+        <v>1087715</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
-        <v>1684</v>
+        <v>2542</v>
       </c>
       <c r="N14" s="7">
-        <v>1565767</v>
+        <v>1998976</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,153 +4684,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>726299</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>1045</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>873561</v>
+        <v>1094242</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1719</v>
+        <v>2567</v>
       </c>
       <c r="N15" s="7">
-        <v>1599860</v>
+        <v>2021073</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>16717</v>
+        <v>55289</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>140</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I16" s="7">
-        <v>7144</v>
+        <v>51696</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N16" s="7">
-        <v>23861</v>
+        <v>106985</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>991</v>
+        <v>3319</v>
       </c>
       <c r="D17" s="7">
-        <v>948686</v>
+        <v>3397241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5288</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3607424</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" s="7">
+        <v>8607</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7004665</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1551</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1142476</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2542</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2091162</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,217 +4839,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3369</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3452530</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5358</v>
       </c>
       <c r="I18" s="7">
-        <v>1149620</v>
+        <v>3659120</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>2567</v>
+        <v>8727</v>
       </c>
       <c r="N18" s="7">
-        <v>2115023</v>
+        <v>7111650</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>50</v>
-      </c>
-      <c r="D19" s="7">
-        <v>57631</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H19" s="7">
-        <v>70</v>
-      </c>
-      <c r="I19" s="7">
-        <v>55810</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M19" s="7">
-        <v>120</v>
-      </c>
-      <c r="N19" s="7">
-        <v>113441</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3319</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3320336</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5288</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3748660</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8607</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7068997</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3369</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3377967</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5358</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3804470</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8727</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7182438</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
